--- a/data/trans_orig/IP07C24_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C24_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{574D652A-7E95-4E15-AB33-46584BEEB25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C29706D-4F85-444A-913E-A45BEE42B92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0E7D4317-9015-4668-AFB7-7C840B5D31A6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5BA12616-8CB6-4214-B71F-B2FC4BFDCC68}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,184 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>2,35%</t>
@@ -98,33 +272,6 @@
     <t>5,22%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>38,13%</t>
   </si>
   <si>
@@ -149,27 +296,6 @@
     <t>31,36%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>58,54%</t>
   </si>
   <si>
@@ -197,93 +323,123 @@
     <t>66,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
     <t>4,1%</t>
   </si>
   <si>
@@ -311,18 +467,6 @@
     <t>7,65%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
     <t>32,77%</t>
   </si>
   <si>
@@ -347,12 +491,6 @@
     <t>39,62%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>62,85%</t>
   </si>
   <si>
@@ -380,142 +518,34 @@
     <t>72,18%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>3,55%</t>
@@ -539,27 +569,6 @@
     <t>4,64%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
     <t>31,93%</t>
   </si>
   <si>
@@ -585,15 +594,6 @@
   </si>
   <si>
     <t>39,69%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
   </si>
   <si>
     <t>63,74%</t>
@@ -1012,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296EBDC3-3FA5-4435-86EF-274211FC39C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B55100C-1CA1-4213-BF66-60D3AB5549E7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1130,10 +1130,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2416</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1145,55 +1145,55 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3676</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1202,100 +1202,100 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>39156</v>
+        <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>21537</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>60693</v>
+        <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1304,79 +1304,79 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>60120</v>
+        <v>1688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>34263</v>
+        <v>1593</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>94384</v>
+        <v>3282</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,72 +1385,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>102698</v>
+        <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>159759</v>
+        <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2295</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1459,34 +1459,34 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>2295</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1510,13 +1510,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1525,121 +1525,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>11253</v>
+        <v>2295</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>14633</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>25886</v>
+        <v>2295</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>11253</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>14633</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>25886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>31</v>
@@ -1648,13 +1648,13 @@
         <v>28417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -1663,13 +1663,13 @@
         <v>17266</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -1678,13 +1678,13 @@
         <v>45682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1699,13 +1699,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1714,13 +1714,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1729,87 +1729,87 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2310</v>
+        <v>364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1646</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>3956</v>
+        <v>364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>160</v>
+        <v>643</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1818,181 +1818,181 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>160</v>
+        <v>643</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>18462</v>
+        <v>2416</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>17459</v>
+        <v>1260</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M18" s="7">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>35922</v>
+        <v>3676</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>39156</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>21537</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>60693</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D20" s="7">
-        <v>35410</v>
+        <v>60120</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I20" s="7">
-        <v>37379</v>
+        <v>34263</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="N20" s="7">
-        <v>72789</v>
+        <v>94384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,72 +2001,72 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>56342</v>
+        <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I21" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="N21" s="7">
-        <v>112826</v>
+        <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2075,49 +2075,49 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2126,181 +2126,181 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>1840</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>16431</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>22701</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="7">
+        <v>34</v>
+      </c>
+      <c r="N25" s="7">
+        <v>39132</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7">
+        <v>49</v>
+      </c>
+      <c r="D26" s="7">
+        <v>44674</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="7">
         <v>43</v>
       </c>
-      <c r="C26" s="7">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1688</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>31598</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>92</v>
+      </c>
+      <c r="N26" s="7">
+        <v>76272</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1593</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3282</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,123 +2309,123 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7">
-        <v>2324</v>
+        <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I27" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>3918</v>
+        <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1840</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="H28" s="7">
-        <v>2</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1210</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M28" s="7">
-        <v>4</v>
-      </c>
-      <c r="N28" s="7">
-        <v>3050</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>906</v>
+        <v>160</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2434,127 +2434,127 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>906</v>
+        <v>160</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>16431</v>
+        <v>2310</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1646</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M30" s="7">
+        <v>6</v>
+      </c>
+      <c r="N30" s="7">
+        <v>3956</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="H30" s="7">
-        <v>21</v>
-      </c>
-      <c r="I30" s="7">
-        <v>22701</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M30" s="7">
-        <v>34</v>
-      </c>
-      <c r="N30" s="7">
-        <v>39132</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>18462</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="7">
+        <v>21</v>
+      </c>
+      <c r="I31" s="7">
+        <v>17459</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="7">
+        <v>42</v>
+      </c>
+      <c r="N31" s="7">
+        <v>35922</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>150</v>
@@ -2563,13 +2563,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D32" s="7">
-        <v>44674</v>
+        <v>35410</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>151</v>
@@ -2581,10 +2581,10 @@
         <v>153</v>
       </c>
       <c r="H32" s="7">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I32" s="7">
-        <v>31598</v>
+        <v>37379</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>154</v>
@@ -2596,10 +2596,10 @@
         <v>156</v>
       </c>
       <c r="M32" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N32" s="7">
-        <v>76272</v>
+        <v>72789</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>157</v>
@@ -2617,49 +2617,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7">
-        <v>63851</v>
+        <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H33" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I33" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M33" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N33" s="7">
-        <v>119360</v>
+        <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,55 +2670,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>364</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="7">
-        <v>9497</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>364</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H34" s="7">
-        <v>8</v>
-      </c>
-      <c r="I34" s="7">
-        <v>4116</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M34" s="7">
-        <v>20</v>
-      </c>
-      <c r="N34" s="7">
-        <v>13613</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -2727,13 +2727,13 @@
         <v>1708</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2742,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -2757,112 +2757,112 @@
         <v>1708</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D36" s="7">
-        <v>85302</v>
+        <v>9497</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="7">
+        <v>8</v>
+      </c>
+      <c r="I36" s="7">
+        <v>4116</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>20</v>
+      </c>
+      <c r="N36" s="7">
+        <v>13613</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="H36" s="7">
-        <v>88</v>
-      </c>
-      <c r="I36" s="7">
-        <v>76331</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M36" s="7">
-        <v>177</v>
-      </c>
-      <c r="N36" s="7">
-        <v>161632</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D37" s="7">
-        <v>364</v>
+        <v>85302</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H37" s="7">
+        <v>88</v>
+      </c>
+      <c r="I37" s="7">
+        <v>76331</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M37" s="7">
+        <v>177</v>
+      </c>
+      <c r="N37" s="7">
+        <v>161632</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>364</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>185</v>
@@ -2871,7 +2871,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C38" s="7">
         <v>202</v>
@@ -2931,13 +2931,13 @@
         <v>267180</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -2946,13 +2946,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M39" s="7">
         <v>577</v>
@@ -2961,13 +2961,13 @@
         <v>469726</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C24_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C24_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C29706D-4F85-444A-913E-A45BEE42B92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{625435C7-D29A-4320-A936-FE2387B0B4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5BA12616-8CB6-4214-B71F-B2FC4BFDCC68}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B28257F-03A8-4D3B-BE8F-600297BE5AF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="199">
   <si>
     <t>Menores según frecuencia de divertirte con tus amigos en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -68,559 +68,571 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -631,7 +643,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -727,39 +739,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -811,7 +823,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -922,13 +934,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -937,6 +942,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1001,19 +1013,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B55100C-1CA1-4213-BF66-60D3AB5549E7}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ABBA2D-3748-4C42-9B6F-61159BF20F52}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1130,10 +1162,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1688</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1145,40 +1177,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3282</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1187,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1202,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1217,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1238,13 +1270,13 @@
         <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1253,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1268,50 +1300,50 @@
         <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
@@ -1319,64 +1351,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1688</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1593</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3282</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,13 +1423,13 @@
         <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1406,13 +1438,13 @@
         <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -1421,13 +1453,13 @@
         <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1438,106 +1470,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>28417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>17266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>45682</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>11253</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="7">
+        <v>17</v>
+      </c>
+      <c r="I11" s="7">
+        <v>14633</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="7">
         <v>32</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>25886</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -1546,13 +1578,13 @@
         <v>2295</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1561,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -1576,112 +1608,112 @@
         <v>2295</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>11253</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>14633</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>25886</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>28417</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>17266</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M14" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>45682</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>58</v>
@@ -1699,13 +1731,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1714,13 +1746,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1729,13 +1761,13 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,106 +1778,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <v>364</v>
+        <v>60120</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>34263</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="N16" s="7">
-        <v>364</v>
+        <v>94384</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>643</v>
+        <v>39156</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>21537</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="N17" s="7">
-        <v>643</v>
+        <v>60693</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -1854,13 +1886,13 @@
         <v>2416</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1869,13 +1901,13 @@
         <v>1260</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -1884,115 +1916,115 @@
         <v>3676</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>39156</v>
+        <v>643</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>21537</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>60693</v>
+        <v>643</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>60120</v>
+        <v>364</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>34263</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="M20" s="7">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>94384</v>
+        <v>364</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2039,13 @@
         <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -2022,13 +2054,13 @@
         <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>198</v>
@@ -2037,123 +2069,123 @@
         <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>44674</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>31598</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>76272</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D23" s="7">
-        <v>906</v>
+        <v>16431</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>22701</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N23" s="7">
-        <v>906</v>
+        <v>39132</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
@@ -2162,13 +2194,13 @@
         <v>1840</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2177,13 +2209,13 @@
         <v>1210</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2192,115 +2224,115 @@
         <v>3050</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>16431</v>
+        <v>906</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>22701</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M25" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>39132</v>
+        <v>906</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>44674</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>31598</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>76272</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,13 +2347,13 @@
         <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -2330,13 +2362,13 @@
         <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M27" s="7">
         <v>131</v>
@@ -2345,123 +2377,123 @@
         <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>35410</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>37379</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>72789</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D29" s="7">
-        <v>160</v>
+        <v>18462</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>17459</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="N29" s="7">
-        <v>160</v>
+        <v>35922</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>3</v>
@@ -2470,13 +2502,13 @@
         <v>2310</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2485,13 +2517,13 @@
         <v>1646</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -2500,115 +2532,115 @@
         <v>3956</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>18462</v>
+        <v>160</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="H31" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>17459</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="M31" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>35922</v>
+        <v>160</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>35410</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H32" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>37379</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M32" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>72789</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2655,13 @@
         <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H33" s="7">
         <v>75</v>
@@ -2638,13 +2670,13 @@
         <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M33" s="7">
         <v>145</v>
@@ -2653,13 +2685,13 @@
         <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,106 +2702,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="D34" s="7">
-        <v>364</v>
+        <v>170309</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>122100</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="N34" s="7">
-        <v>364</v>
+        <v>292409</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D35" s="7">
-        <v>1708</v>
+        <v>85302</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>76331</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M35" s="7">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="N35" s="7">
-        <v>1708</v>
+        <v>161632</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7">
         <v>12</v>
@@ -2778,13 +2810,13 @@
         <v>9497</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -2793,13 +2825,13 @@
         <v>4116</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>20</v>
@@ -2808,115 +2840,115 @@
         <v>13613</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>85302</v>
+        <v>1708</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H37" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>76331</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="M37" s="7">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="N37" s="7">
-        <v>161632</v>
+        <v>1708</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>170309</v>
+        <v>364</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H38" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>122100</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="M38" s="7">
-        <v>376</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>292409</v>
+        <v>364</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2963,13 @@
         <v>267180</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -2946,13 +2978,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M39" s="7">
         <v>577</v>
@@ -2961,13 +2993,18 @@
         <v>469726</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C24_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C24_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{625435C7-D29A-4320-A936-FE2387B0B4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57958D7D-9CC5-4B10-AC14-FA38A83B0447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B28257F-03A8-4D3B-BE8F-600297BE5AF3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0141A65C-0866-4DFC-875F-4AF1B53FA35B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -74,7 +74,7 @@
     <t>72,63%</t>
   </si>
   <si>
-    <t>21,22%</t>
+    <t>15,74%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>83,76%</t>
   </si>
   <si>
-    <t>38,98%</t>
+    <t>38,18%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -116,13 +116,13 @@
     <t>27,37%</t>
   </si>
   <si>
-    <t>78,78%</t>
+    <t>84,26%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>61,02%</t>
+    <t>61,82%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -131,178 +131,175 @@
     <t>Nunca</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>67,72%</t>
   </si>
   <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
   </si>
   <si>
     <t>54,13%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
   </si>
   <si>
     <t>61,85%</t>
   </si>
   <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>45,87%</t>
   </si>
   <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
   </si>
   <si>
     <t>35,05%</t>
   </si>
   <si>
-    <t>23,39%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
   </si>
   <si>
     <t>46,37%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
+    <t>5,24%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>3,34%</t>
   </si>
   <si>
     <t>2,39%</t>
@@ -311,103 +308,103 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,59%</t>
+    <t>1,65%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>69,97%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>56,92%</t>
   </si>
   <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
   </si>
   <si>
     <t>63,9%</t>
   </si>
   <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>25,73%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
   </si>
   <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>10,74%</t>
+    <t>11,49%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>7,32%</t>
+    <t>7,28%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>7,0%</t>
+    <t>7,93%</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -416,7 +413,7 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,8%</t>
   </si>
   <si>
     <t>2,9%</t>
@@ -431,73 +428,73 @@
     <t>62,85%</t>
   </si>
   <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>66,18%</t>
   </si>
   <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>64,51%</t>
   </si>
   <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
   </si>
   <si>
     <t>30,91%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
   </si>
   <si>
     <t>31,84%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>3,51%</t>
@@ -506,10 +503,7 @@
     <t>1,29%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>8,44%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -521,115 +515,121 @@
     <t>0,14%</t>
   </si>
   <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
     <t>0,36%</t>
   </si>
   <si>
     <t>0,03%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1044,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ABBA2D-3748-4C42-9B6F-61159BF20F52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFFCF3E-3A3E-446D-9C80-0972DA7306BD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1919,10 +1919,10 @@
         <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1937,13 @@
         <v>643</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1967,13 +1967,13 @@
         <v>643</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +1988,13 @@
         <v>364</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2018,13 +2018,13 @@
         <v>364</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,7 +2080,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2092,13 +2092,13 @@
         <v>44674</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -2107,13 +2107,13 @@
         <v>31598</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>92</v>
@@ -2122,13 +2122,13 @@
         <v>76272</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2143,13 @@
         <v>16431</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -2158,13 +2158,13 @@
         <v>22701</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -2173,13 +2173,13 @@
         <v>39132</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2194,13 @@
         <v>1840</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2209,13 +2209,13 @@
         <v>1210</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2224,13 +2224,13 @@
         <v>3050</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2245,13 @@
         <v>906</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2275,13 +2275,13 @@
         <v>906</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,7 +2388,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2400,13 +2400,13 @@
         <v>35410</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -2415,13 +2415,13 @@
         <v>37379</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>96</v>
@@ -2430,13 +2430,13 @@
         <v>72789</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2451,13 @@
         <v>18462</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -2466,13 +2466,13 @@
         <v>17459</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -2481,13 +2481,13 @@
         <v>35922</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2502,13 @@
         <v>2310</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2517,13 +2517,13 @@
         <v>1646</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -2532,13 +2532,13 @@
         <v>3956</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2553,13 @@
         <v>160</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>20</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2583,13 +2583,13 @@
         <v>160</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2610,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>20</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2708,13 @@
         <v>170309</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H34" s="7">
         <v>174</v>
@@ -2723,13 +2723,13 @@
         <v>122100</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M34" s="7">
         <v>376</v>
@@ -2738,13 +2738,13 @@
         <v>292409</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2759,13 @@
         <v>85302</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H35" s="7">
         <v>88</v>
@@ -2774,13 +2774,13 @@
         <v>76331</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M35" s="7">
         <v>177</v>
@@ -2789,13 +2789,13 @@
         <v>161632</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2810,13 @@
         <v>9497</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -2825,13 +2825,13 @@
         <v>4116</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>20</v>
@@ -2840,13 +2840,13 @@
         <v>13613</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2861,13 @@
         <v>1708</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -2912,7 +2912,7 @@
         <v>364</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>19</v>
@@ -2933,7 +2933,7 @@
         <v>20</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>

--- a/data/trans_orig/IP07C24_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C24_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57958D7D-9CC5-4B10-AC14-FA38A83B0447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E92CCB-F561-4F42-90F5-6F84C7C8C0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0141A65C-0866-4DFC-875F-4AF1B53FA35B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CF5B909A-C04E-48AC-ADD1-069A19A2A04E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="209">
   <si>
     <t>Menores según frecuencia de divertirte con tus amigos en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,571 +65,601 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1044,8 +1074,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFFCF3E-3A3E-446D-9C80-0972DA7306BD}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE24AF-8D6E-4447-8788-AEC27FD2481C}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1162,10 +1192,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1688</v>
+        <v>918</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1177,13 +1207,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -1192,19 +1222,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>3282</v>
+        <v>918</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1219,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1234,13 +1264,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1249,166 +1279,166 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3167</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>636</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1599</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>636</v>
+        <v>4766</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>4959</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7">
         <v>19</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>15463</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>20422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>22129</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>30959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>53089</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1417,102 +1447,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>2324</v>
+        <v>31173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>3918</v>
+        <v>79194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>28417</v>
+        <v>1444</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>17266</v>
+        <v>1624</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>45682</v>
+        <v>3068</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,202 +1551,202 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>11253</v>
+        <v>2806</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>14633</v>
+        <v>808</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>25886</v>
+        <v>3613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>2295</v>
+        <v>1416</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>9393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>2295</v>
+        <v>10809</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>16314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>34414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>50728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>31654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>56538</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>88192</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,102 +1755,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>41965</v>
+        <v>53633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="N15" s="7">
-        <v>73863</v>
+        <v>156410</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>60120</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>34263</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>94384</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,202 +1859,202 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>39156</v>
+        <v>788</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>21537</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>60693</v>
+        <v>788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>2416</v>
+        <v>2388</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1260</v>
+        <v>2565</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>3676</v>
+        <v>4953</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>643</v>
+        <v>37867</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>18684</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N19" s="7">
-        <v>643</v>
+        <v>56551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7">
-        <v>364</v>
+        <v>31141</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>43729</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="N20" s="7">
-        <v>364</v>
+        <v>74869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,102 +2063,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>102698</v>
+        <v>72183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>57060</v>
+        <v>64978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>159759</v>
+        <v>137161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>44674</v>
+        <v>1595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>31598</v>
+        <v>1073</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>76272</v>
+        <v>2668</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,202 +2167,202 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>16431</v>
+        <v>823</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>22701</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>39132</v>
+        <v>823</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>1840</v>
+        <v>2864</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>1210</v>
+        <v>4533</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N24" s="7">
-        <v>3050</v>
+        <v>7396</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D25" s="7">
-        <v>906</v>
+        <v>23111</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20330</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N25" s="7">
-        <v>906</v>
+        <v>43441</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>25090</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>30435</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>55525</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,102 +2371,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>63851</v>
+        <v>53483</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I27" s="7">
-        <v>55509</v>
+        <v>56371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N27" s="7">
-        <v>119360</v>
+        <v>109854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>35410</v>
+        <v>3957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="H28" s="7">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="I28" s="7">
-        <v>37379</v>
+        <v>2697</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="M28" s="7">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="N28" s="7">
-        <v>72789</v>
+        <v>6653</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,202 +2475,202 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>18462</v>
+        <v>4416</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>17459</v>
+        <v>808</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="M29" s="7">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="N29" s="7">
-        <v>35922</v>
+        <v>5224</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>2310</v>
+        <v>9835</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="H30" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I30" s="7">
-        <v>1646</v>
+        <v>18089</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="M30" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="N30" s="7">
-        <v>3956</v>
+        <v>27924</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D31" s="7">
-        <v>160</v>
+        <v>82250</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>88892</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="N31" s="7">
-        <v>160</v>
+        <v>171142</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>110014</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>161662</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>271676</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,370 +2679,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>56342</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="I33" s="7">
-        <v>56484</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>145</v>
+        <v>577</v>
       </c>
       <c r="N33" s="7">
-        <v>112826</v>
+        <v>482619</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>202</v>
-      </c>
-      <c r="D34" s="7">
-        <v>170309</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" s="7">
-        <v>174</v>
-      </c>
-      <c r="I34" s="7">
-        <v>122100</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M34" s="7">
-        <v>376</v>
-      </c>
-      <c r="N34" s="7">
-        <v>292409</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7">
-        <v>89</v>
-      </c>
-      <c r="D35" s="7">
-        <v>85302</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H35" s="7">
-        <v>88</v>
-      </c>
-      <c r="I35" s="7">
-        <v>76331</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M35" s="7">
-        <v>177</v>
-      </c>
-      <c r="N35" s="7">
-        <v>161632</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="7">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7">
-        <v>9497</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H36" s="7">
-        <v>8</v>
-      </c>
-      <c r="I36" s="7">
-        <v>4116</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M36" s="7">
-        <v>20</v>
-      </c>
-      <c r="N36" s="7">
-        <v>13613</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="7">
-        <v>3</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1708</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M37" s="7">
-        <v>3</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1708</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
-        <v>364</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1</v>
-      </c>
-      <c r="N38" s="7">
-        <v>364</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>307</v>
-      </c>
-      <c r="D39" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="7">
-        <v>270</v>
-      </c>
-      <c r="I39" s="7">
-        <v>202546</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M39" s="7">
-        <v>577</v>
-      </c>
-      <c r="N39" s="7">
-        <v>469726</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>198</v>
+      <c r="A34" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
